--- a/Coaches_carreers/Coaches/Mikel Arteta.xlsx
+++ b/Coaches_carreers/Coaches/Mikel Arteta.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>ProbA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -698,6 +703,11 @@
       <c r="AE2" t="n">
         <v>0.4945054945054945</v>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -803,6 +813,11 @@
       <c r="AE3" t="n">
         <v>0.4181554983251697</v>
       </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -908,6 +923,11 @@
       <c r="AE4" t="n">
         <v>0.3644747127010261</v>
       </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1013,6 +1033,11 @@
       <c r="AE5" t="n">
         <v>0.5369328052254881</v>
       </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1118,6 +1143,11 @@
       <c r="AE6" t="n">
         <v>0.2125559664082362</v>
       </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1223,6 +1253,11 @@
       <c r="AE7" t="n">
         <v>0.2022129463989928</v>
       </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1328,6 +1363,11 @@
       <c r="AE8" t="n">
         <v>0.4814814814814815</v>
       </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1433,6 +1473,11 @@
       <c r="AE9" t="n">
         <v>0.1083959899749374</v>
       </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1537,6 +1582,11 @@
       </c>
       <c r="AE10" t="n">
         <v>0.2542542542542542</v>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1643,6 +1693,11 @@
       <c r="AE11" t="n">
         <v>0.1664736537348002</v>
       </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1748,6 +1803,11 @@
       <c r="AE12" t="n">
         <v>0.1136321195144725</v>
       </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1853,6 +1913,11 @@
       <c r="AE13" t="n">
         <v>0.4045363012288288</v>
       </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1958,6 +2023,11 @@
       <c r="AE14" t="n">
         <v>0.3643430360987613</v>
       </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2063,6 +2133,11 @@
       <c r="AE15" t="n">
         <v>0.1269145084934559</v>
       </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2168,6 +2243,11 @@
       <c r="AE16" t="n">
         <v>0.2922741746271158</v>
       </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2273,6 +2353,11 @@
       <c r="AE17" t="n">
         <v>0.3153899240855763</v>
       </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2378,6 +2463,11 @@
       <c r="AE18" t="n">
         <v>0.3549812347896467</v>
       </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2483,6 +2573,11 @@
       <c r="AE19" t="n">
         <v>0.5087719298245614</v>
       </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2588,6 +2683,11 @@
       <c r="AE20" t="n">
         <v>0.4571909571909571</v>
       </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2693,6 +2793,11 @@
       <c r="AE21" t="n">
         <v>0.2456140350877193</v>
       </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2798,6 +2903,11 @@
       <c r="AE22" t="n">
         <v>0.6365253311999678</v>
       </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2903,6 +3013,11 @@
       <c r="AE23" t="n">
         <v>0.1626064567241038</v>
       </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3008,6 +3123,11 @@
       <c r="AE24" t="n">
         <v>0.1358369398296803</v>
       </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3113,6 +3233,11 @@
       <c r="AE25" t="n">
         <v>0.1487968860580326</v>
       </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3218,6 +3343,11 @@
       <c r="AE26" t="n">
         <v>0.1377492877492878</v>
       </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3323,6 +3453,11 @@
       <c r="AE27" t="n">
         <v>0.2444444444444444</v>
       </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3427,6 +3562,11 @@
       </c>
       <c r="AE28" t="n">
         <v>0.2592592592592592</v>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3533,6 +3673,11 @@
       <c r="AE29" t="n">
         <v>0.1833456516383346</v>
       </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3638,6 +3783,11 @@
       <c r="AE30" t="n">
         <v>0.4363636363636364</v>
       </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3743,6 +3893,11 @@
       <c r="AE31" t="n">
         <v>0.2504702694085764</v>
       </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3848,6 +4003,11 @@
       <c r="AE32" t="n">
         <v>0.2452391662917978</v>
       </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3953,6 +4113,11 @@
       <c r="AE33" t="n">
         <v>0.142769996887644</v>
       </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4058,6 +4223,11 @@
       <c r="AE34" t="n">
         <v>0.3050008533879501</v>
       </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4163,6 +4333,11 @@
       <c r="AE35" t="n">
         <v>0.3401360544217688</v>
       </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4268,6 +4443,11 @@
       <c r="AE36" t="n">
         <v>0.5082846003898636</v>
       </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4373,6 +4553,11 @@
       <c r="AE37" t="n">
         <v>0.4385614385614386</v>
       </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4478,6 +4663,11 @@
       <c r="AE38" t="n">
         <v>0.6166574356134035</v>
       </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4583,6 +4773,11 @@
       <c r="AE39" t="n">
         <v>0.1346991788168259</v>
       </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4688,6 +4883,11 @@
       <c r="AE40" t="n">
         <v>0.1044973544973545</v>
       </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4793,6 +4993,11 @@
       <c r="AE41" t="n">
         <v>0.4707058975351659</v>
       </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4898,6 +5103,11 @@
       <c r="AE42" t="n">
         <v>0.391156462585034</v>
       </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5003,6 +5213,11 @@
       <c r="AE43" t="n">
         <v>0.4571909571909571</v>
       </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5108,6 +5323,11 @@
       <c r="AE44" t="n">
         <v>0.3672790314011689</v>
       </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5213,6 +5433,11 @@
       <c r="AE45" t="n">
         <v>0.2301313392771547</v>
       </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5318,6 +5543,11 @@
       <c r="AE46" t="n">
         <v>0.6495134324233631</v>
       </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5423,6 +5653,11 @@
       <c r="AE47" t="n">
         <v>0.3400560224089636</v>
       </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5528,6 +5763,11 @@
       <c r="AE48" t="n">
         <v>0.6034726143421796</v>
       </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5633,6 +5873,11 @@
       <c r="AE49" t="n">
         <v>0.3469994058229353</v>
       </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5738,6 +5983,11 @@
       <c r="AE50" t="n">
         <v>0.391156462585034</v>
       </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5843,6 +6093,11 @@
       <c r="AE51" t="n">
         <v>0.4457938809026581</v>
       </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5948,6 +6203,11 @@
       <c r="AE52" t="n">
         <v>0.6177908432685503</v>
       </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6053,6 +6313,11 @@
       <c r="AE53" t="n">
         <v>0.1884244926040592</v>
       </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6157,6 +6422,11 @@
       </c>
       <c r="AE54" t="n">
         <v>0.2492063492063492</v>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -6263,6 +6533,11 @@
       <c r="AE55" t="n">
         <v>0.4814814814814815</v>
       </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6368,6 +6643,11 @@
       <c r="AE56" t="n">
         <v>0.123015873015873</v>
       </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6473,6 +6753,11 @@
       <c r="AE57" t="n">
         <v>0.1813131313131313</v>
       </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6578,6 +6863,11 @@
       <c r="AE58" t="n">
         <v>0.6481481481481481</v>
       </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6682,6 +6972,11 @@
       </c>
       <c r="AE59" t="n">
         <v>0.1710209411920184</v>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
       </c>
     </row>
   </sheetData>
